--- a/second_pass/welfare_results/isoelastic_WR/analysis_results/net_series_nh_isoelastic_wr.xlsx
+++ b/second_pass/welfare_results/isoelastic_WR/analysis_results/net_series_nh_isoelastic_wr.xlsx
@@ -368,10 +368,10 @@
         <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>-4069825884834.38</v>
+        <v>-4065324268110.38</v>
       </c>
       <c r="C2" t="n">
-        <v>96036372213.2445</v>
+        <v>95957396481.2445</v>
       </c>
     </row>
     <row r="3">
@@ -379,10 +379,10 @@
         <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>-3993472172322.1</v>
+        <v>-3989262069558.1</v>
       </c>
       <c r="C3" t="n">
-        <v>94171303196.1495</v>
+        <v>94097441744.1495</v>
       </c>
     </row>
     <row r="4">
@@ -390,10 +390,10 @@
         <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>-3957530365596.46</v>
+        <v>-3953306880030.46</v>
       </c>
       <c r="C4" t="n">
-        <v>93225223638.904</v>
+        <v>93151127400.904</v>
       </c>
     </row>
     <row r="5">
@@ -401,10 +401,10 @@
         <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>-3953888777309.16</v>
+        <v>-3949435416956.16</v>
       </c>
       <c r="C5" t="n">
-        <v>93054123114.7815</v>
+        <v>92975993985.7815</v>
       </c>
     </row>
     <row r="6">
@@ -412,10 +412,10 @@
         <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>-3981397259339.73</v>
+        <v>-3976886658617.73</v>
       </c>
       <c r="C6" t="n">
-        <v>93641542969.309</v>
+        <v>93562409623.309</v>
       </c>
     </row>
     <row r="7">
@@ -423,10 +423,10 @@
         <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>-4013696561886.59</v>
+        <v>-4009047137892.59</v>
       </c>
       <c r="C7" t="n">
-        <v>94318962571.133</v>
+        <v>94237393729.133</v>
       </c>
     </row>
     <row r="8">
@@ -434,10 +434,10 @@
         <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>-4032456042734.1</v>
+        <v>-4027725483173.1</v>
       </c>
       <c r="C8" t="n">
-        <v>94670718570.549</v>
+        <v>94587726297.549</v>
       </c>
     </row>
     <row r="9">
@@ -445,10 +445,10 @@
         <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>-4045826075122.24</v>
+        <v>-4041168729553.24</v>
       </c>
       <c r="C9" t="n">
-        <v>95125516092.5815</v>
+        <v>95043808275.5815</v>
       </c>
     </row>
     <row r="10">
@@ -456,10 +456,10 @@
         <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>-4106328557693.33</v>
+        <v>-4101715479749.33</v>
       </c>
       <c r="C10" t="n">
-        <v>96486969442.177</v>
+        <v>96406038250.177</v>
       </c>
     </row>
     <row r="11">
@@ -467,10 +467,10 @@
         <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>-4247599075004.3</v>
+        <v>-4242795208256.3</v>
       </c>
       <c r="C11" t="n">
-        <v>99758359920.087</v>
+        <v>99674081556.087</v>
       </c>
     </row>
     <row r="12">
@@ -478,10 +478,10 @@
         <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>-4331760772297.77</v>
+        <v>-4326836255302.77</v>
       </c>
       <c r="C12" t="n">
-        <v>101677409020.918</v>
+        <v>101591013985.918</v>
       </c>
     </row>
     <row r="13">
@@ -489,10 +489,10 @@
         <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>-4428959830018.55</v>
+        <v>-4423878969091.55</v>
       </c>
       <c r="C13" t="n">
-        <v>103835371041.458</v>
+        <v>103746233130.458</v>
       </c>
     </row>
     <row r="14">
@@ -500,10 +500,10 @@
         <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>-4510133459169.3</v>
+        <v>-4505245623726.3</v>
       </c>
       <c r="C14" t="n">
-        <v>105724224808.39</v>
+        <v>105638473309.39</v>
       </c>
     </row>
     <row r="15">
@@ -511,10 +511,10 @@
         <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>-4577992558810.52</v>
+        <v>-4573181702437.52</v>
       </c>
       <c r="C15" t="n">
-        <v>107258126472.292</v>
+        <v>107173725483.292</v>
       </c>
     </row>
     <row r="16">
@@ -522,10 +522,10 @@
         <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>-4710465960387.85</v>
+        <v>-4705679055129.85</v>
       </c>
       <c r="C16" t="n">
-        <v>110331438448.318</v>
+        <v>110247457654.318</v>
       </c>
     </row>
     <row r="17">
@@ -533,10 +533,10 @@
         <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>-4805007655534.76</v>
+        <v>-4800147685396.76</v>
       </c>
       <c r="C17" t="n">
-        <v>112505790444.519</v>
+        <v>112420527810.519</v>
       </c>
     </row>
     <row r="18">
@@ -544,10 +544,10 @@
         <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>-4819617614635.78</v>
+        <v>-4814636080939.78</v>
       </c>
       <c r="C18" t="n">
-        <v>112764538037.303</v>
+        <v>112677142709.303</v>
       </c>
     </row>
     <row r="19">
@@ -555,10 +555,10 @@
         <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>-4956588544021.7</v>
+        <v>-4951513423906.7</v>
       </c>
       <c r="C19" t="n">
-        <v>115904234393.74</v>
+        <v>115815197198.74</v>
       </c>
     </row>
     <row r="20">
@@ -566,10 +566,10 @@
         <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>-5026184346650.08</v>
+        <v>-5021284805915.08</v>
       </c>
       <c r="C20" t="n">
-        <v>117442434679.757</v>
+        <v>117356477824.757</v>
       </c>
     </row>
     <row r="21">
@@ -577,10 +577,10 @@
         <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>-5224710049294.81</v>
+        <v>-5219764134727.81</v>
       </c>
       <c r="C21" t="n">
-        <v>122061686108.837</v>
+        <v>121974915677.837</v>
       </c>
     </row>
     <row r="22">
@@ -588,10 +588,10 @@
         <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>-5302318234645.68</v>
+        <v>-5269430999031.91</v>
       </c>
       <c r="C22" t="n">
-        <v>123760559324.355</v>
+        <v>123174844077.627</v>
       </c>
     </row>
     <row r="23">
@@ -599,10 +599,10 @@
         <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>-5522345999556.38</v>
+        <v>-5488971021948.97</v>
       </c>
       <c r="C23" t="n">
-        <v>128884212118.918</v>
+        <v>128289848587.982</v>
       </c>
     </row>
     <row r="24">
@@ -610,10 +610,10 @@
         <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>-5701548833778.91</v>
+        <v>-5668431147660.3</v>
       </c>
       <c r="C24" t="n">
-        <v>133060776745.295</v>
+        <v>132470967676.927</v>
       </c>
     </row>
     <row r="25">
@@ -621,10 +621,10 @@
         <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>-5858630123050.13</v>
+        <v>-5825217982847.4</v>
       </c>
       <c r="C25" t="n">
-        <v>136749845552.437</v>
+        <v>136154774147.781</v>
       </c>
     </row>
     <row r="26">
@@ -632,10 +632,10 @@
         <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>-6023873790314.83</v>
+        <v>-5990318524835.1</v>
       </c>
       <c r="C26" t="n">
-        <v>140575054583.523</v>
+        <v>139977439813.867</v>
       </c>
     </row>
     <row r="27">
@@ -643,10 +643,10 @@
         <v>2016</v>
       </c>
       <c r="B27" t="n">
-        <v>-6147233990745.96</v>
+        <v>-6113660092960.73</v>
       </c>
       <c r="C27" t="n">
-        <v>143399475213.227</v>
+        <v>142801592428.955</v>
       </c>
     </row>
     <row r="28">
@@ -654,10 +654,10 @@
         <v>2017</v>
       </c>
       <c r="B28" t="n">
-        <v>-6283059149414.96</v>
+        <v>-6249729872007.34</v>
       </c>
       <c r="C28" t="n">
-        <v>146379481977.54</v>
+        <v>145785965230.404</v>
       </c>
     </row>
     <row r="29">
@@ -665,10 +665,10 @@
         <v>2018</v>
       </c>
       <c r="B29" t="n">
-        <v>-6456891840309.57</v>
+        <v>-6425018571908.95</v>
       </c>
       <c r="C29" t="n">
-        <v>150556266010.839</v>
+        <v>149988467608.935</v>
       </c>
     </row>
     <row r="30">
@@ -676,10 +676,10 @@
         <v>2019</v>
       </c>
       <c r="B30" t="n">
-        <v>-6542806607962.86</v>
+        <v>-6514448419323.52</v>
       </c>
       <c r="C30" t="n">
-        <v>152574086542.077</v>
+        <v>152069022199.053</v>
       </c>
     </row>
   </sheetData>
